--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1899466.812836188</v>
+        <v>-1902043.13431743</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>36.86350000479569</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>85.17289288835038</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,16 +871,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>150.0910473609167</v>
+        <v>79.37699223124105</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>297.9986308222597</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>193.0498990629221</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>69.4600723927833</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>60.48993411919047</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.6826008233562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>16.87651346253263</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>79.05209092238475</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>209.1054071374034</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833856</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>36.21070476472489</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.9025715636461</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174119</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>156.3923706291105</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>26.70391688093298</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.17550840396296</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652565</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,13 +3323,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,10 +3670,10 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796247</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C2" t="n">
-        <v>552.807938939213</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D2" t="n">
-        <v>194.5422403324625</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>209.9456031467892</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>365.6554470691465</v>
+        <v>544.1164547552294</v>
       </c>
       <c r="M4" t="n">
-        <v>646.8594072604511</v>
+        <v>711.5489360544271</v>
       </c>
       <c r="N4" t="n">
-        <v>818.1682442902986</v>
+        <v>882.8577730842746</v>
       </c>
       <c r="O4" t="n">
-        <v>956.0865935084882</v>
+        <v>1020.776122302464</v>
       </c>
       <c r="P4" t="n">
-        <v>1055.037596261247</v>
+        <v>1119.727125055223</v>
       </c>
       <c r="Q4" t="n">
-        <v>1132.647892413761</v>
+        <v>1132.647892413764</v>
       </c>
       <c r="R4" t="n">
-        <v>1042.817435171289</v>
+        <v>1042.817435171292</v>
       </c>
       <c r="S4" t="n">
-        <v>851.1315509981157</v>
+        <v>851.1315509981182</v>
       </c>
       <c r="T4" t="n">
-        <v>629.3649355676417</v>
+        <v>629.3649355676442</v>
       </c>
       <c r="U4" t="n">
-        <v>477.7578170212613</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V4" t="n">
-        <v>477.7578170212613</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>477.7578170212613</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694472</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.60683175406</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>764.3411331473096</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490654</v>
+        <v>424.0701624477505</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4595,22 +4595,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2671.097699223873</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2318.329043953759</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734405</v>
+        <v>1944.863285692679</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758593</v>
+        <v>1554.723953716867</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,7 +4659,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
         <v>2407.41198488674</v>
@@ -4668,28 +4668,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>521.2725633630539</v>
+        <v>402.9356658273847</v>
       </c>
       <c r="C7" t="n">
-        <v>521.2725633630539</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="D7" t="n">
-        <v>371.1559239507181</v>
+        <v>233.9994828994778</v>
       </c>
       <c r="E7" t="n">
-        <v>371.1559239507181</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>371.1559239507181</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4729,46 +4729,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046014</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W7" t="n">
-        <v>970.0546934046014</v>
+        <v>812.5736815556418</v>
       </c>
       <c r="X7" t="n">
-        <v>742.065142506584</v>
+        <v>584.5841306576244</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.2725633630539</v>
+        <v>584.5841306576244</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.86133602681</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1196.477747641189</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>838.2120490344385</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>838.2120490344385</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4802,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y8" t="n">
-        <v>1771.429619686766</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>758.9852304414014</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="C10" t="n">
-        <v>758.9852304414014</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D10" t="n">
-        <v>608.8685910290657</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E10" t="n">
-        <v>460.9554974466726</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F10" t="n">
-        <v>314.0655499487622</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>146.3627133234811</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>146.3627133234811</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.426274415171</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X10" t="n">
-        <v>1161.426274415171</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y10" t="n">
-        <v>940.6336952716412</v>
+        <v>310.0549803959802</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5027,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703137</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424068</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>526.5658826424068</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797191</v>
+        <v>526.5658826424068</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797191</v>
+        <v>379.6759351444964</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>212.4798358593764</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038366</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797767</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.3728552556131</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,49 +5507,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192507</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836018</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556949</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D28" t="n">
-        <v>415.5933575433592</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E28" t="n">
-        <v>267.680263960966</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F28" t="n">
-        <v>120.7903164630557</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="G28" t="n">
-        <v>120.7903164630557</v>
+        <v>297.3219370380596</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>155.6101058802577</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138415</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,10 +6692,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6704,34 +6704,34 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6883,16 +6883,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,34 +6947,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7348,34 +7348,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7564,10 +7564,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
@@ -7582,7 +7582,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656818</v>
@@ -7792,10 +7792,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,10 +7819,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7831,16 +7831,16 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,13 +8137,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>73.51987778270379</v>
       </c>
       <c r="M4" t="n">
-        <v>114.9206857496029</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>345.8703416586849</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>296.7574771839114</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22562,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>136.1207908446962</v>
+        <v>206.8348459743718</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844822703</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>104.084008081499</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.6820817884487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>29.94462611521701</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>92.12028678808304</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>113.5907959652909</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>20.09032791460258</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26332,7 +26332,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
         <v>100893.3249612508</v>
@@ -26341,19 +26341,19 @@
         <v>102630.2212330356</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3287.485941553325</v>
+        <v>3287.485941553329</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184276</v>
       </c>
       <c r="K4" t="n">
-        <v>21597.66737493617</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493618</v>
+        <v>21597.66737493619</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.66737493617</v>
+        <v>21597.66737493623</v>
       </c>
       <c r="N4" t="n">
         <v>21597.6673749362</v>
@@ -26457,7 +26457,7 @@
         <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1357076.998055163</v>
+        <v>-1357471.818996316</v>
       </c>
       <c r="C6" t="n">
-        <v>-98097.56221155195</v>
+        <v>-98097.56221155198</v>
       </c>
       <c r="D6" t="n">
-        <v>-98097.56221155194</v>
+        <v>-98097.56221155192</v>
       </c>
       <c r="E6" t="n">
-        <v>-339248.4747818547</v>
+        <v>-339283.2127072903</v>
       </c>
       <c r="F6" t="n">
-        <v>-13836.0129744991</v>
+        <v>-13870.75089993479</v>
       </c>
       <c r="G6" t="n">
-        <v>-13836.01297449898</v>
+        <v>-13870.75089993484</v>
       </c>
       <c r="H6" t="n">
-        <v>-13836.0129744991</v>
+        <v>-13870.75089993481</v>
       </c>
       <c r="I6" t="n">
-        <v>-13836.0129744991</v>
+        <v>-13870.75089993475</v>
       </c>
       <c r="J6" t="n">
-        <v>-231367.2153717764</v>
+        <v>-231401.9532972123</v>
       </c>
       <c r="K6" t="n">
-        <v>-41559.27998944778</v>
+        <v>-41559.27998944787</v>
       </c>
       <c r="L6" t="n">
-        <v>-22131.56199581602</v>
+        <v>-22131.56199581611</v>
       </c>
       <c r="M6" t="n">
         <v>-107186.5899313281</v>
       </c>
       <c r="N6" t="n">
-        <v>-22131.56199581616</v>
+        <v>-22131.56199581621</v>
       </c>
       <c r="O6" t="n">
-        <v>-22131.56199581607</v>
+        <v>-22131.56199581617</v>
       </c>
       <c r="P6" t="n">
-        <v>-41559.27998944791</v>
+        <v>-41559.27998944794</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>108.8774149194517</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>134.7023594072128</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>76.97389025378587</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>105.5358741398377</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196.0512408401243</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>389.9995322791788</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.30032948745334</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>77.41759119918763</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31355,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31394,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31443,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31461,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,34 +32072,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>491.5977325265315</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,7 +32309,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502014</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>658.2124561388958</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>230.8025484113475</v>
       </c>
       <c r="M4" t="n">
-        <v>284.044404233641</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096372</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191315</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>349.0014880820871</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016748</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
         <v>418.6266618111712</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.6869047919381</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,16 +38175,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980851</v>
